--- a/results/comparaison/WM/azimuth/max_raw_data.xlsx
+++ b/results/comparaison/WM/azimuth/max_raw_data.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:31">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -388,65 +388,255 @@
       <c r="F1" s="1">
         <v>4</v>
       </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:31">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>117.6536312849162</v>
+      </c>
+      <c r="C2">
+        <v>44.24581005586592</v>
+      </c>
+      <c r="D2">
+        <v>105.586592178771</v>
+      </c>
+      <c r="E2">
+        <v>132.7374301675978</v>
+      </c>
+      <c r="F2">
         <v>115.6424581005587</v>
       </c>
-      <c r="C2">
-        <v>121.6759776536313</v>
-      </c>
-      <c r="D2">
-        <v>130.7262569832402</v>
-      </c>
-      <c r="E2">
-        <v>113.6312849162011</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
+        <v>175.9776536312849</v>
+      </c>
+      <c r="H2">
+        <v>80.44692737430168</v>
+      </c>
+      <c r="I2">
+        <v>1.005586592178771</v>
+      </c>
+      <c r="J2">
+        <v>172.9608938547486</v>
+      </c>
+      <c r="K2">
+        <v>150.8379888268157</v>
+      </c>
+      <c r="L2">
+        <v>61.34078212290503</v>
+      </c>
+      <c r="M2">
+        <v>65.36312849162012</v>
+      </c>
+      <c r="N2">
         <v>97.5418994413408</v>
       </c>
+      <c r="O2">
+        <v>173.9664804469274</v>
+      </c>
+      <c r="P2">
+        <v>158.8826815642458</v>
+      </c>
+      <c r="Q2">
+        <v>154.8603351955307</v>
+      </c>
+      <c r="R2">
+        <v>147.8212290502793</v>
+      </c>
+      <c r="S2">
+        <v>92.51396648044692</v>
+      </c>
+      <c r="T2">
+        <v>63.35195530726257</v>
+      </c>
+      <c r="U2">
+        <v>152.8491620111732</v>
+      </c>
+      <c r="V2">
+        <v>175.9776536312849</v>
+      </c>
+      <c r="W2">
+        <v>69.38547486033519</v>
+      </c>
+      <c r="X2">
+        <v>137.7653631284916</v>
+      </c>
+      <c r="Y2">
+        <v>86.4804469273743</v>
+      </c>
+      <c r="Z2">
+        <v>162.9050279329609</v>
+      </c>
+      <c r="AA2">
+        <v>13.07262569832402</v>
+      </c>
+      <c r="AB2">
+        <v>175.9776536312849</v>
+      </c>
+      <c r="AC2">
+        <v>53.29608938547487</v>
+      </c>
+      <c r="AD2">
+        <v>56.31284916201118</v>
+      </c>
+      <c r="AE2">
+        <v>159.8882681564246</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:31">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>140.7821229050279</v>
+      </c>
+      <c r="E3">
+        <v>151.8435754189944</v>
+      </c>
+      <c r="F3">
         <v>152.8491620111732</v>
       </c>
-      <c r="C3">
-        <v>161.8994413407821</v>
-      </c>
-      <c r="D3">
-        <v>156.8715083798883</v>
-      </c>
-      <c r="E3">
-        <v>145.8100558659218</v>
-      </c>
-      <c r="F3">
-        <v>141.7877094972067</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>151.8435754189944</v>
-      </c>
-      <c r="C4">
+      <c r="G3">
+        <v>72.40223463687151</v>
+      </c>
+      <c r="H3">
+        <v>68.37988826815644</v>
+      </c>
+      <c r="I3">
+        <v>1.005586592178771</v>
+      </c>
+      <c r="J3">
+        <v>155.8659217877095</v>
+      </c>
+      <c r="K3">
+        <v>152.8491620111732</v>
+      </c>
+      <c r="L3">
+        <v>53.29608938547487</v>
+      </c>
+      <c r="M3">
+        <v>56.31284916201118</v>
+      </c>
+      <c r="O3">
         <v>153.854748603352</v>
       </c>
-      <c r="D4">
-        <v>153.854748603352</v>
-      </c>
-      <c r="E4">
+      <c r="P3">
+        <v>148.8268156424581</v>
+      </c>
+      <c r="Q3">
         <v>149.8324022346369</v>
       </c>
-      <c r="F4">
-        <v>144.804469273743</v>
+      <c r="R3">
+        <v>139.7765363128491</v>
+      </c>
+      <c r="S3">
+        <v>65.36312849162012</v>
+      </c>
+      <c r="V3">
+        <v>59.32960893854749</v>
+      </c>
+      <c r="W3">
+        <v>72.40223463687151</v>
+      </c>
+      <c r="X3">
+        <v>149.8324022346369</v>
+      </c>
+      <c r="Y3">
+        <v>77.43016759776536</v>
+      </c>
+      <c r="Z3">
+        <v>146.8156424581006</v>
+      </c>
+      <c r="AA3">
+        <v>165.9217877094972</v>
+      </c>
+      <c r="AB3">
+        <v>11.06145251396648</v>
+      </c>
+      <c r="AC3">
+        <v>152.8491620111732</v>
+      </c>
+      <c r="AD3">
+        <v>155.8659217877095</v>
+      </c>
+      <c r="AE3">
+        <v>165.9217877094972</v>
       </c>
     </row>
   </sheetData>
